--- a/biology/Botanique/Hebeloma/Hebeloma.xlsx
+++ b/biology/Botanique/Hebeloma/Hebeloma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hebeloma[1],[2],[3],[4],[5] (nom normalisé français : les Hébélomes) est un genre de champignons basidiomycètes lamellés (Agaricales) de la famille des Hymenogastraceae. Proche des Cortinaires, au chapeau nu, crème, café-au-lait à brun, et au pied parfois annelé ou cortiné. Aucun n'est comestible, certains peuvent causer de graves intoxications.  
-Assez facile à reconnaître en tant que genre à son chapeau souvent visqueux, ses lames ochracées, ni libres ni décurrentes, à liseré marginal blanchâtre, cortine souvent fugace, rarement persistante[6], il s'avère très difficile à déterminer au niveau spécifique sur le terrain. Il réunit un nombre croissant d'espèces depuis le début du siècle, de 90 en 1994, à environ 150 espèces en 2008 et en janvier 2016, Index Fungorum admet 321 espèces dans le genre Hebeloma[7] à silhouette collybio-tricholomoïde, chapeau obtus ou convexe étalé, souvent terne, à odeur raphanoïde, terreuse ou chocolatée. Sporée ocre terne. Spores en forme d'amandes, verruqueuses.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hebeloma (nom normalisé français : les Hébélomes) est un genre de champignons basidiomycètes lamellés (Agaricales) de la famille des Hymenogastraceae. Proche des Cortinaires, au chapeau nu, crème, café-au-lait à brun, et au pied parfois annelé ou cortiné. Aucun n'est comestible, certains peuvent causer de graves intoxications.  
+Assez facile à reconnaître en tant que genre à son chapeau souvent visqueux, ses lames ochracées, ni libres ni décurrentes, à liseré marginal blanchâtre, cortine souvent fugace, rarement persistante, il s'avère très difficile à déterminer au niveau spécifique sur le terrain. Il réunit un nombre croissant d'espèces depuis le début du siècle, de 90 en 1994, à environ 150 espèces en 2008 et en janvier 2016, Index Fungorum admet 321 espèces dans le genre Hebeloma à silhouette collybio-tricholomoïde, chapeau obtus ou convexe étalé, souvent terne, à odeur raphanoïde, terreuse ou chocolatée. Sporée ocre terne. Spores en forme d'amandes, verruqueuses.
 Traditionnellement classé dans la famille des Cortinariaceae, puis dans les Bolbitiaceae et enfin dans les Hymenogastraceae ou Strophariaceae. Quelques-uns sont très courants, notamment l'Hébélome moutarde (Hebeloma sinapizans), (Hebeloma crustuliniforme). L'espèce-type est Hebeloma fastibile.
-En pépinière, il a été démontré que leur association mycorhizienne avec certains arbres favorise très fortement la croissance de ces derniers[8],[9].
+En pépinière, il a été démontré que leur association mycorhizienne avec certains arbres favorise très fortement la croissance de ces derniers,.
 </t>
         </is>
       </c>
@@ -514,10 +526,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hébélome (1874) est le nom francisé à partir du latin scientifique Hebeloma, composé du grec ancien ἥβη, hếbê « jeunesse, puberté (donc pilosité ») et λῶμα, lôma (« frange, bordure, lèvre, ourlet »), soit « à bord pubescent » (et non pas «  frangé ») en référence à leur marge souvent duveteuse, dite « pubescente »[10],⁣[11].
-Autre interprétation, beaucoup plus probable : « voilé dans la jeunesse »[12].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hébélome (1874) est le nom francisé à partir du latin scientifique Hebeloma, composé du grec ancien ἥβη, hếbê « jeunesse, puberté (donc pilosité ») et λῶμα, lôma (« frange, bordure, lèvre, ourlet »), soit « à bord pubescent » (et non pas «  frangé ») en référence à leur marge souvent duveteuse, dite « pubescente »,⁣.
+Autre interprétation, beaucoup plus probable : « voilé dans la jeunesse ».
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Taxinomie des sections d'Hebeloma</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hebeloma sect. Adherentia Monedero &amp; P. Alvarado 2020;
 Hebeloma sect. Denudata (Fr.) Sacc. 1916;
@@ -599,7 +615,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Hebeloma aestivale Vesterh.
